--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_10_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_10_no_assign.xlsx
@@ -49,40 +49,52 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
     <t>Total time online (min)</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
   </si>
   <si>
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Clicks (% of course total)</t>
+    <t>Clicks on course</t>
   </si>
   <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Clicks on course</t>
+    <t>Number of clicks</t>
   </si>
   <si>
     <t>Days with no interaction</t>
   </si>
   <si>
-    <t>Largest period of inactivity (h)</t>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Number of clicks</t>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Clicks per session</t>
@@ -91,61 +103,49 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
     <t>Number of sessions</t>
   </si>
   <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Submissions (% of course total)</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
+    <t>Forum posts</t>
   </si>
   <si>
     <t>Files downloaded</t>
   </si>
   <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Number of days</t>
+    <t>Discussions viewed</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
+    <t>Quizzes started</t>
   </si>
 </sst>
 </file>
@@ -712,13 +712,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -744,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -770,13 +770,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -840,13 +840,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -904,25 +904,25 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1003,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1026,16 +1026,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1282,10 +1282,10 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1804,13 +1804,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1932,19 +1932,19 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -1996,13 +1996,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2060,31 +2060,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2092,13 +2092,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2133,13 +2133,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2188,31 +2188,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,16 +2380,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,16 +2476,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -2868,18 +2868,18 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3042,13 +3042,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3080,33 +3080,33 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3115,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3129,22 +3129,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -3161,10 +3161,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -3179,36 +3179,36 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -3220,36 +3220,36 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -3289,54 +3289,54 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3348,15 +3348,15 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -3368,16 +3368,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -3385,16 +3385,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3481,13 +3481,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3499,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3513,13 +3513,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3528,16 +3528,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3609,13 +3609,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3636,18 +3636,18 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3668,18 +3668,18 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3732,12 +3732,12 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -3969,21 +3969,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4047,13 +4047,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -4070,16 +4070,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4143,13 +4143,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4175,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -4184,27 +4184,27 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -4225,21 +4225,21 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -4248,13 +4248,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4294,31 +4294,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,16 +4326,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -4353,21 +4353,21 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -4385,18 +4385,18 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -4417,59 +4417,59 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -4481,18 +4481,18 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4513,18 +4513,18 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4533,30 +4533,30 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4565,30 +4565,30 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4609,21 +4609,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4710,13 +4710,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -4737,12 +4737,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -4769,18 +4769,18 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -4801,12 +4801,12 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_10_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_10_no_assign.xlsx
@@ -49,52 +49,31 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Clicks (% of course total)</t>
+    <t>Total time online (min)</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Clicks (% of course total)</t>
   </si>
   <si>
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
     <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Number of clicks</t>
   </si>
   <si>
     <t>Days with no interaction</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
+    <t>Largest period of inactivity (h)</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Clicks per session</t>
@@ -106,46 +85,67 @@
     <t>Number of sessions</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Links viewed</t>
   </si>
   <si>
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Assignments submitted</t>
   </si>
   <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
     <t>Number of days</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
     <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
   </si>
 </sst>
 </file>
@@ -712,13 +712,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -744,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -770,13 +770,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -802,13 +802,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -849,16 +849,16 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -866,7 +866,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -881,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -898,16 +898,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -930,10 +930,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -965,25 +965,25 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1058,31 +1058,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1122,13 +1122,13 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1154,10 +1154,10 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1192,25 +1192,25 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1285,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1807,13 +1807,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,16 +1900,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1927,12 +1927,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1973,36 +1973,36 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,31 +2028,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2092,31 +2092,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,31 +2124,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2156,31 +2156,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2220,31 +2220,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,16 +2380,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,16 +2476,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -2868,18 +2868,18 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -3161,10 +3161,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -3179,27 +3179,27 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -3225,31 +3225,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -3289,112 +3289,112 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -3444,18 +3444,18 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3476,18 +3476,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3499,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3636,18 +3636,18 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3668,18 +3668,18 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3732,12 +3732,12 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -3969,18 +3969,18 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4143,13 +4143,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -4181,33 +4181,33 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4216,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -4230,13 +4230,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4274,27 +4274,27 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4306,19 +4306,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,45 +4326,45 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -4385,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -4417,82 +4417,82 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4513,18 +4513,18 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4545,56 +4545,56 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -4614,16 +4614,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4737,12 +4737,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_10_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_10_no_assign.xlsx
@@ -82,13 +82,13 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
     <t>Number of clicks</t>
   </si>
   <si>
     <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
@@ -97,55 +97,55 @@
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Links viewed</t>
   </si>
   <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Quizzes started</t>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
+    <t>Quizzes started</t>
   </si>
 </sst>
 </file>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -930,19 +930,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -965,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1154,13 +1154,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1195,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -1282,13 +1282,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1900,16 +1900,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1964,16 +1964,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1982,45 +1982,45 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2101,13 +2101,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2156,63 +2156,63 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -2220,31 +2220,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,16 +2380,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,16 +2476,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2873,16 +2873,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2946,13 +2946,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2969,16 +2969,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3042,13 +3042,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3083,24 +3083,24 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -3124,12 +3124,12 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3138,22 +3138,22 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -3188,36 +3188,36 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3225,31 +3225,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3257,31 +3257,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3289,31 +3289,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -3348,18 +3348,18 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -3380,12 +3380,12 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3397,19 +3397,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -3449,13 +3449,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3476,18 +3476,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3499,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3513,13 +3513,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3531,13 +3531,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -3615,10 +3615,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3641,13 +3641,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3668,18 +3668,18 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3732,12 +3732,12 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -3969,21 +3969,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -4134,13 +4134,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -4161,12 +4161,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4181,30 +4181,30 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -4216,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -4262,22 +4262,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4289,12 +4289,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4306,19 +4306,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,13 +4326,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -4344,13 +4344,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4358,31 +4358,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -4393,28 +4393,28 @@
         <v>28</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -4422,80 +4422,80 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -4518,13 +4518,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4545,12 +4545,12 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -4577,27 +4577,27 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -4609,21 +4609,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4687,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4737,12 +4737,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_10_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_10_no_assign.xlsx
@@ -82,6 +82,9 @@
     <t>Clicks per day</t>
   </si>
   <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
     <t>Number of clicks</t>
   </si>
   <si>
@@ -91,25 +94,19 @@
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
@@ -118,34 +115,37 @@
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Assignments submitted</t>
   </si>
   <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
     <t>Number of days</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
     <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
   </si>
 </sst>
 </file>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -930,19 +930,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -965,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1003,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1058,28 +1058,28 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1282,13 +1282,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1799,12 +1799,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1831,12 +1831,12 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,13 +1900,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1927,18 +1927,18 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -1959,27 +1959,27 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -1999,19 +1999,19 @@
         <v>22</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2031,28 +2031,28 @@
         <v>26</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2060,31 +2060,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2092,31 +2092,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -2136,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2156,10 +2156,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -2183,18 +2183,18 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2215,12 +2215,12 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2279,12 +2279,12 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,16 +2380,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2508,13 +2508,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2535,12 +2535,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2946,13 +2946,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2969,16 +2969,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3042,13 +3042,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3083,30 +3083,30 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3124,12 +3124,12 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3138,22 +3138,22 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3161,22 +3161,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3193,31 +3193,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3289,31 +3289,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -3348,36 +3348,36 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -3385,31 +3385,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -3435,21 +3435,21 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3513,13 +3513,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3531,13 +3531,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3609,13 +3609,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3636,12 +3636,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -3974,16 +3974,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -4134,22 +4134,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -4161,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4198,16 +4198,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4230,19 +4230,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -4262,31 +4262,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4326,10 +4326,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -4338,10 +4338,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -4353,79 +4353,79 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -4513,12 +4513,12 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4550,10 +4550,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -4565,16 +4565,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4591,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -4609,12 +4609,12 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4687,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
